--- a/销售出库单模板.xlsx
+++ b/销售出库单模板.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rouic\IdeaProjects\corporate_group_backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baoya\IdeaProjects\corporate_group_backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BE61AC-0D9E-4216-A09E-445D8175BB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34DFB43-3722-44DE-A7FE-BCE79E3C23FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="3020" windowWidth="28800" windowHeight="15370" xr2:uid="{65C936A2-83E6-41D9-8906-73BF15E0C902}"/>
+    <workbookView xWindow="3610" yWindow="2450" windowWidth="28800" windowHeight="15370" xr2:uid="{65C936A2-83E6-41D9-8906-73BF15E0C902}"/>
   </bookViews>
   <sheets>
-    <sheet name="入库单" sheetId="17" r:id="rId1"/>
+    <sheet name="出库单" sheetId="17" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -193,50 +193,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1097,450 +1094,508 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
     </row>
     <row r="44" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
     </row>
     <row r="46" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
     </row>
     <row r="48" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
     </row>
     <row r="49" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
     </row>
     <row r="50" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
     </row>
     <row r="52" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
     </row>
     <row r="53" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
     </row>
     <row r="54" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
     </row>
     <row r="56" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F3:H3"/>
@@ -1565,80 +1620,22 @@
     <mergeCell ref="F47:H47"/>
     <mergeCell ref="F48:H48"/>
     <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
     <mergeCell ref="F50:H50"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/销售出库单模板.xlsx
+++ b/销售出库单模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22440" windowHeight="14775"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="出库单" sheetId="1" r:id="rId1"/>
@@ -763,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -799,7 +799,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1117,7 +1116,7 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1706,185 +1705,271 @@
     </row>
     <row r="5" customHeight="1" spans="1:11">
       <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" customHeight="1" spans="1:11">
       <c r="D6"/>
+      <c r="E6"/>
       <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
     </row>
     <row r="7" ht="31" customHeight="1" spans="1:11">
       <c r="D7"/>
+      <c r="E7"/>
       <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
     </row>
     <row r="8" customHeight="1" spans="1:11">
       <c r="D8"/>
+      <c r="E8"/>
       <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
     </row>
     <row r="9" customHeight="1" spans="1:11">
       <c r="D9"/>
+      <c r="E9"/>
       <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
     </row>
     <row r="10" customHeight="1" spans="1:11">
       <c r="D10"/>
+      <c r="E10"/>
       <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
     </row>
     <row r="11" customHeight="1" spans="1:11">
       <c r="D11"/>
+      <c r="E11"/>
       <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
     </row>
     <row r="12" customHeight="1" spans="1:11">
       <c r="D12"/>
+      <c r="E12"/>
       <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
     </row>
     <row r="13" customHeight="1" spans="1:11">
       <c r="D13"/>
+      <c r="E13"/>
       <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
     </row>
     <row r="14" customHeight="1" spans="1:11">
       <c r="D14"/>
+      <c r="E14"/>
       <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
     </row>
     <row r="15" customHeight="1" spans="1:11">
       <c r="D15"/>
+      <c r="E15"/>
       <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
     </row>
     <row r="16" customHeight="1" spans="1:11">
       <c r="D16"/>
+      <c r="E16"/>
       <c r="F16"/>
-    </row>
-    <row r="17" customHeight="1" spans="4:6">
+      <c r="G16"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" customHeight="1" spans="4:8">
       <c r="D17"/>
+      <c r="E17"/>
       <c r="F17"/>
-    </row>
-    <row r="18" customHeight="1" spans="4:6">
+      <c r="G17"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" customHeight="1" spans="4:8">
       <c r="D18"/>
+      <c r="E18"/>
       <c r="F18"/>
-    </row>
-    <row r="19" customHeight="1" spans="4:6">
+      <c r="G18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" customHeight="1" spans="4:8">
       <c r="D19"/>
+      <c r="E19"/>
       <c r="F19"/>
-    </row>
-    <row r="20" customHeight="1" spans="4:6">
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" customHeight="1" spans="4:8">
       <c r="D20"/>
+      <c r="E20"/>
       <c r="F20"/>
-    </row>
-    <row r="21" customHeight="1" spans="4:6">
+      <c r="G20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" customHeight="1" spans="4:8">
       <c r="D21"/>
+      <c r="E21"/>
       <c r="F21"/>
-    </row>
-    <row r="22" customHeight="1" spans="4:6">
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" customHeight="1" spans="4:8">
       <c r="D22"/>
+      <c r="E22"/>
       <c r="F22"/>
-    </row>
-    <row r="23" customHeight="1" spans="4:6">
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" customHeight="1" spans="4:8">
       <c r="D23"/>
+      <c r="E23"/>
       <c r="F23"/>
-    </row>
-    <row r="24" customHeight="1" spans="4:6">
+      <c r="G23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" customHeight="1" spans="4:8">
       <c r="D24"/>
+      <c r="E24"/>
       <c r="F24"/>
-    </row>
-    <row r="25" customHeight="1" spans="4:6">
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" customHeight="1" spans="4:8">
       <c r="D25"/>
+      <c r="E25"/>
       <c r="F25"/>
-    </row>
-    <row r="26" customHeight="1" spans="4:6">
+      <c r="G25"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" customHeight="1" spans="4:8">
       <c r="D26"/>
+      <c r="E26"/>
       <c r="F26"/>
-    </row>
-    <row r="27" customHeight="1" spans="4:6">
+      <c r="G26"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" customHeight="1" spans="4:8">
       <c r="D27"/>
+      <c r="E27"/>
       <c r="F27"/>
     </row>
-    <row r="28" customHeight="1" spans="4:6">
+    <row r="28" customHeight="1" spans="4:8">
       <c r="D28"/>
+      <c r="E28"/>
       <c r="F28"/>
     </row>
-    <row r="29" customHeight="1" spans="4:6">
+    <row r="29" customHeight="1" spans="4:8">
       <c r="D29"/>
+      <c r="E29"/>
       <c r="F29"/>
     </row>
-    <row r="30" customHeight="1" spans="4:6">
+    <row r="30" customHeight="1" spans="4:8">
       <c r="D30"/>
+      <c r="E30"/>
       <c r="F30"/>
     </row>
-    <row r="31" customHeight="1" spans="4:6">
+    <row r="31" customHeight="1" spans="4:8">
       <c r="D31"/>
+      <c r="E31"/>
       <c r="F31"/>
     </row>
-    <row r="32" customHeight="1" spans="4:6">
+    <row r="32" customHeight="1" spans="4:8">
       <c r="D32"/>
+      <c r="E32"/>
       <c r="F32"/>
     </row>
     <row r="33" customHeight="1" spans="4:6">
       <c r="D33"/>
+      <c r="E33"/>
       <c r="F33"/>
     </row>
     <row r="34" customHeight="1" spans="4:6">
       <c r="D34"/>
+      <c r="E34"/>
       <c r="F34"/>
     </row>
     <row r="35" customHeight="1" spans="4:6">
       <c r="D35"/>
+      <c r="E35"/>
       <c r="F35"/>
     </row>
     <row r="36" customHeight="1" spans="4:6">
       <c r="D36"/>
+      <c r="E36"/>
       <c r="F36"/>
     </row>
     <row r="37" customHeight="1" spans="4:6">
       <c r="D37"/>
+      <c r="E37"/>
       <c r="F37"/>
     </row>
     <row r="38" customHeight="1" spans="4:6">
       <c r="D38"/>
+      <c r="E38"/>
       <c r="F38"/>
     </row>
     <row r="39" customHeight="1" spans="4:6">
       <c r="D39"/>
+      <c r="E39"/>
       <c r="F39"/>
     </row>
     <row r="40" customHeight="1" spans="4:6">
       <c r="D40"/>
+      <c r="E40"/>
       <c r="F40"/>
     </row>
     <row r="41" customHeight="1" spans="4:6">
       <c r="D41"/>
+      <c r="E41"/>
       <c r="F41"/>
     </row>
     <row r="42" customHeight="1" spans="4:6">
       <c r="D42"/>
+      <c r="E42"/>
       <c r="F42"/>
     </row>
     <row r="43" customHeight="1" spans="4:6">
       <c r="D43"/>
+      <c r="E43"/>
       <c r="F43"/>
     </row>
     <row r="44" customHeight="1" spans="4:6">
       <c r="D44"/>
+      <c r="E44"/>
       <c r="F44"/>
     </row>
     <row r="45" customHeight="1" spans="4:6">
       <c r="D45"/>
+      <c r="E45"/>
       <c r="F45"/>
     </row>
     <row r="46" customHeight="1" spans="4:6">
       <c r="D46"/>
+      <c r="E46"/>
       <c r="F46"/>
     </row>
     <row r="47" customHeight="1" spans="4:6">
       <c r="D47"/>
+      <c r="E47"/>
       <c r="F47"/>
     </row>
     <row r="48" customHeight="1" spans="4:6">
       <c r="D48"/>
+      <c r="E48"/>
       <c r="F48"/>
     </row>
     <row r="49" customHeight="1" spans="4:6">
       <c r="D49"/>
+      <c r="E49"/>
       <c r="F49"/>
     </row>
     <row r="50" customHeight="1" spans="4:6">
@@ -1916,7 +2001,7 @@
       <c r="F56"/>
     </row>
   </sheetData>
-  <mergeCells count="111">
+  <mergeCells count="44">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -1924,95 +2009,28 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="D27:E27"/>
     <mergeCell ref="F27:H27"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:H28"/>
-    <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:H29"/>
-    <mergeCell ref="D30:E30"/>
     <mergeCell ref="F30:H30"/>
-    <mergeCell ref="D31:E31"/>
     <mergeCell ref="F31:H31"/>
-    <mergeCell ref="D32:E32"/>
     <mergeCell ref="F32:H32"/>
-    <mergeCell ref="D33:E33"/>
     <mergeCell ref="F33:H33"/>
-    <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:H34"/>
-    <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:H35"/>
-    <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:H36"/>
-    <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:H37"/>
-    <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:H38"/>
-    <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:H39"/>
-    <mergeCell ref="D40:E40"/>
     <mergeCell ref="F40:H40"/>
-    <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:H41"/>
-    <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:H42"/>
-    <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:H43"/>
-    <mergeCell ref="D44:E44"/>
     <mergeCell ref="F44:H44"/>
-    <mergeCell ref="D45:E45"/>
     <mergeCell ref="F45:H45"/>
-    <mergeCell ref="D46:E46"/>
     <mergeCell ref="F46:H46"/>
-    <mergeCell ref="D47:E47"/>
     <mergeCell ref="F47:H47"/>
-    <mergeCell ref="D48:E48"/>
     <mergeCell ref="F48:H48"/>
-    <mergeCell ref="D49:E49"/>
     <mergeCell ref="F49:H49"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="F50:H50"/>
